--- a/sac/CSER/SWP.xlsx
+++ b/sac/CSER/SWP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinak\Desktop\Projects\sac\CSER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99DFCD9-F50B-4614-80A0-5C0777BFF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA530E-FB3A-4D04-9BD0-7D71BA6ED5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5C2E4D62-7663-4879-A25F-1E25F52B5BFD}"/>
   </bookViews>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7EBDF-37EB-43D5-9645-55C9415CDD56}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,19 +746,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3">
-        <v>2210030503</v>
+        <v>2210030042</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -771,15 +771,15 @@
       </c>
       <c r="I2" t="str">
         <f>H2&amp;E2&amp;H2</f>
-        <v>"SWP CSER-1.pdf"</v>
+        <v>"SWP CSER-22.pdf"</v>
       </c>
       <c r="J2" t="str">
         <f>G2&amp;F2&amp;I2&amp;F2&amp;K2</f>
-        <v>ren "SWP CSER-1.pdf" "2210030503.pdf"</v>
+        <v>ren "SWP CSER-22.pdf" "2210030042.pdf"</v>
       </c>
       <c r="K2" t="str">
         <f>H2&amp;B2&amp;L2&amp;H2</f>
-        <v>"2210030503.pdf"</v>
+        <v>"2210030042.pdf"</v>
       </c>
       <c r="L2" t="s">
         <v>59</v>
@@ -787,19 +787,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3">
-        <v>2210030501</v>
+        <v>2210030098</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -811,16 +811,16 @@
         <v>58</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I23" si="0">H3&amp;E3&amp;H3</f>
-        <v>"SWP CSER-2.pdf"</v>
+        <f>H3&amp;E3&amp;H3</f>
+        <v>"SWP CSER-21.pdf"</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J23" si="1">G3&amp;F3&amp;I3&amp;F3&amp;K3</f>
-        <v>ren "SWP CSER-2.pdf" "2210030501.pdf"</v>
+        <f>G3&amp;F3&amp;I3&amp;F3&amp;K3</f>
+        <v>ren "SWP CSER-21.pdf" "2210030098.pdf"</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K23" si="2">H3&amp;B3&amp;L3&amp;H3</f>
-        <v>"2210030501.pdf"</v>
+        <f>H3&amp;B3&amp;L3&amp;H3</f>
+        <v>"2210030098.pdf"</v>
       </c>
       <c r="L3" t="s">
         <v>59</v>
@@ -828,19 +828,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
-        <v>2210030500</v>
+        <v>2210030099</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -852,16 +852,16 @@
         <v>58</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-3.pdf"</v>
+        <f>H4&amp;E4&amp;H4</f>
+        <v>"SWP CSER-20.pdf"</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-3.pdf" "2210030500.pdf"</v>
+        <f>G4&amp;F4&amp;I4&amp;F4&amp;K4</f>
+        <v>ren "SWP CSER-20.pdf" "2210030099.pdf"</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030500.pdf"</v>
+        <f>H4&amp;B4&amp;L4&amp;H4</f>
+        <v>"2210030099.pdf"</v>
       </c>
       <c r="L4" t="s">
         <v>59</v>
@@ -869,19 +869,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
-        <v>2210030489</v>
+        <v>2210030205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>57</v>
@@ -893,16 +893,16 @@
         <v>58</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-4.pdf"</v>
+        <f>H5&amp;E5&amp;H5</f>
+        <v>"SWP CSER-19.pdf"</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-4.pdf" "2210030489.pdf"</v>
+        <f>G5&amp;F5&amp;I5&amp;F5&amp;K5</f>
+        <v>ren "SWP CSER-19.pdf" "2210030205.pdf"</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030489.pdf"</v>
+        <f>H5&amp;B5&amp;L5&amp;H5</f>
+        <v>"2210030205.pdf"</v>
       </c>
       <c r="L5" t="s">
         <v>59</v>
@@ -910,19 +910,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
-        <v>2210030486</v>
+        <v>2210030220</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -934,16 +934,16 @@
         <v>58</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-5.pdf"</v>
+        <f>H6&amp;E6&amp;H6</f>
+        <v>"SWP CSER-18.pdf"</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-5.pdf" "2210030486.pdf"</v>
+        <f>G6&amp;F6&amp;I6&amp;F6&amp;K6</f>
+        <v>ren "SWP CSER-18.pdf" "2210030220.pdf"</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030486.pdf"</v>
+        <f>H6&amp;B6&amp;L6&amp;H6</f>
+        <v>"2210030220.pdf"</v>
       </c>
       <c r="L6" t="s">
         <v>59</v>
@@ -951,19 +951,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
-        <v>2210030458</v>
+        <v>2210030244</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -975,16 +975,16 @@
         <v>58</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-6.pdf"</v>
+        <f>H7&amp;E7&amp;H7</f>
+        <v>"SWP CSER-17.pdf"</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-6.pdf" "2210030458.pdf"</v>
+        <f>G7&amp;F7&amp;I7&amp;F7&amp;K7</f>
+        <v>ren "SWP CSER-17.pdf" "2210030244.pdf"</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030458.pdf"</v>
+        <f>H7&amp;B7&amp;L7&amp;H7</f>
+        <v>"2210030244.pdf"</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -992,19 +992,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
-        <v>2210030432</v>
+        <v>2210030250</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1016,16 +1016,16 @@
         <v>58</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-7.pdf"</v>
+        <f>H8&amp;E8&amp;H8</f>
+        <v>"SWP CSER-16.pdf"</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-7.pdf" "2210030432.pdf"</v>
+        <f>G8&amp;F8&amp;I8&amp;F8&amp;K8</f>
+        <v>ren "SWP CSER-16.pdf" "2210030250.pdf"</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030432.pdf"</v>
+        <f>H8&amp;B8&amp;L8&amp;H8</f>
+        <v>"2210030250.pdf"</v>
       </c>
       <c r="L8" t="s">
         <v>59</v>
@@ -1033,19 +1033,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
-        <v>2210030390</v>
+        <v>2210030287</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1057,16 +1057,16 @@
         <v>58</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-8.pdf"</v>
+        <f>H9&amp;E9&amp;H9</f>
+        <v>"SWP CSER-15.pdf"</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-8.pdf" "2210030390.pdf"</v>
+        <f>G9&amp;F9&amp;I9&amp;F9&amp;K9</f>
+        <v>ren "SWP CSER-15.pdf" "2210030287.pdf"</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030390.pdf"</v>
+        <f>H9&amp;B9&amp;L9&amp;H9</f>
+        <v>"2210030287.pdf"</v>
       </c>
       <c r="L9" t="s">
         <v>59</v>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
-        <v>2210030384</v>
+        <v>2210030295</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -1098,16 +1098,16 @@
         <v>58</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-9.pdf"</v>
+        <f>H10&amp;E10&amp;H10</f>
+        <v>"SWP CSER-14.pdf"</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-9.pdf" "2210030384.pdf"</v>
+        <f>G10&amp;F10&amp;I10&amp;F10&amp;K10</f>
+        <v>ren "SWP CSER-14.pdf" "2210030295.pdf"</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030384.pdf"</v>
+        <f>H10&amp;B10&amp;L10&amp;H10</f>
+        <v>"2210030295.pdf"</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
@@ -1115,19 +1115,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3">
-        <v>2210030317</v>
+        <v>2210030298</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -1139,16 +1139,16 @@
         <v>58</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-10.pdf"</v>
+        <f>H11&amp;E11&amp;H11</f>
+        <v>"SWP CSER-13.pdf"</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-10.pdf" "2210030317.pdf"</v>
+        <f>G11&amp;F11&amp;I11&amp;F11&amp;K11</f>
+        <v>ren "SWP CSER-13.pdf" "2210030298.pdf"</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030317.pdf"</v>
+        <f>H11&amp;B11&amp;L11&amp;H11</f>
+        <v>"2210030298.pdf"</v>
       </c>
       <c r="L11" t="s">
         <v>59</v>
@@ -1156,19 +1156,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>2210030309</v>
+        <v>2210030303</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -1180,16 +1180,16 @@
         <v>58</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-11.pdf"</v>
+        <f>H12&amp;E12&amp;H12</f>
+        <v>"SWP CSER-12.pdf"</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-11.pdf" "2210030309.pdf"</v>
+        <f>G12&amp;F12&amp;I12&amp;F12&amp;K12</f>
+        <v>ren "SWP CSER-12.pdf" "2210030303.pdf"</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030309.pdf"</v>
+        <f>H12&amp;B12&amp;L12&amp;H12</f>
+        <v>"2210030303.pdf"</v>
       </c>
       <c r="L12" t="s">
         <v>59</v>
@@ -1197,19 +1197,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
-        <v>2210030303</v>
+        <v>2210030309</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>57</v>
@@ -1221,16 +1221,16 @@
         <v>58</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-12.pdf"</v>
+        <f>H13&amp;E13&amp;H13</f>
+        <v>"SWP CSER-11.pdf"</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-12.pdf" "2210030303.pdf"</v>
+        <f>G13&amp;F13&amp;I13&amp;F13&amp;K13</f>
+        <v>ren "SWP CSER-11.pdf" "2210030309.pdf"</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030303.pdf"</v>
+        <f>H13&amp;B13&amp;L13&amp;H13</f>
+        <v>"2210030309.pdf"</v>
       </c>
       <c r="L13" t="s">
         <v>59</v>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
-        <v>2210030298</v>
+        <v>2210030317</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -1262,16 +1262,16 @@
         <v>58</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-13.pdf"</v>
+        <f>H14&amp;E14&amp;H14</f>
+        <v>"SWP CSER-10.pdf"</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-13.pdf" "2210030298.pdf"</v>
+        <f>G14&amp;F14&amp;I14&amp;F14&amp;K14</f>
+        <v>ren "SWP CSER-10.pdf" "2210030317.pdf"</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030298.pdf"</v>
+        <f>H14&amp;B14&amp;L14&amp;H14</f>
+        <v>"2210030317.pdf"</v>
       </c>
       <c r="L14" t="s">
         <v>59</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>2210030295</v>
+        <v>2210030384</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1303,16 +1303,16 @@
         <v>58</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-14.pdf"</v>
+        <f>H15&amp;E15&amp;H15</f>
+        <v>"SWP CSER-9.pdf"</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-14.pdf" "2210030295.pdf"</v>
+        <f>G15&amp;F15&amp;I15&amp;F15&amp;K15</f>
+        <v>ren "SWP CSER-9.pdf" "2210030384.pdf"</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030295.pdf"</v>
+        <f>H15&amp;B15&amp;L15&amp;H15</f>
+        <v>"2210030384.pdf"</v>
       </c>
       <c r="L15" t="s">
         <v>59</v>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>2210030287</v>
+        <v>2210030390</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
@@ -1344,16 +1344,16 @@
         <v>58</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-15.pdf"</v>
+        <f>H16&amp;E16&amp;H16</f>
+        <v>"SWP CSER-8.pdf"</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-15.pdf" "2210030287.pdf"</v>
+        <f>G16&amp;F16&amp;I16&amp;F16&amp;K16</f>
+        <v>ren "SWP CSER-8.pdf" "2210030390.pdf"</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030287.pdf"</v>
+        <f>H16&amp;B16&amp;L16&amp;H16</f>
+        <v>"2210030390.pdf"</v>
       </c>
       <c r="L16" t="s">
         <v>59</v>
@@ -1361,19 +1361,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>2210030250</v>
+        <v>2210030432</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>57</v>
@@ -1385,16 +1385,16 @@
         <v>58</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-16.pdf"</v>
+        <f>H17&amp;E17&amp;H17</f>
+        <v>"SWP CSER-7.pdf"</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-16.pdf" "2210030250.pdf"</v>
+        <f>G17&amp;F17&amp;I17&amp;F17&amp;K17</f>
+        <v>ren "SWP CSER-7.pdf" "2210030432.pdf"</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030250.pdf"</v>
+        <f>H17&amp;B17&amp;L17&amp;H17</f>
+        <v>"2210030432.pdf"</v>
       </c>
       <c r="L17" t="s">
         <v>59</v>
@@ -1402,19 +1402,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>2210030244</v>
+        <v>2210030458</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -1426,16 +1426,16 @@
         <v>58</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-17.pdf"</v>
+        <f>H18&amp;E18&amp;H18</f>
+        <v>"SWP CSER-6.pdf"</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-17.pdf" "2210030244.pdf"</v>
+        <f>G18&amp;F18&amp;I18&amp;F18&amp;K18</f>
+        <v>ren "SWP CSER-6.pdf" "2210030458.pdf"</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030244.pdf"</v>
+        <f>H18&amp;B18&amp;L18&amp;H18</f>
+        <v>"2210030458.pdf"</v>
       </c>
       <c r="L18" t="s">
         <v>59</v>
@@ -1443,19 +1443,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
-        <v>2210030220</v>
+        <v>2210030486</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -1467,16 +1467,16 @@
         <v>58</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-18.pdf"</v>
+        <f>H19&amp;E19&amp;H19</f>
+        <v>"SWP CSER-5.pdf"</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-18.pdf" "2210030220.pdf"</v>
+        <f>G19&amp;F19&amp;I19&amp;F19&amp;K19</f>
+        <v>ren "SWP CSER-5.pdf" "2210030486.pdf"</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030220.pdf"</v>
+        <f>H19&amp;B19&amp;L19&amp;H19</f>
+        <v>"2210030486.pdf"</v>
       </c>
       <c r="L19" t="s">
         <v>59</v>
@@ -1484,19 +1484,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>2210030205</v>
+        <v>2210030489</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
@@ -1508,16 +1508,16 @@
         <v>58</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-19.pdf"</v>
+        <f>H20&amp;E20&amp;H20</f>
+        <v>"SWP CSER-4.pdf"</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-19.pdf" "2210030205.pdf"</v>
+        <f>G20&amp;F20&amp;I20&amp;F20&amp;K20</f>
+        <v>ren "SWP CSER-4.pdf" "2210030489.pdf"</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030205.pdf"</v>
+        <f>H20&amp;B20&amp;L20&amp;H20</f>
+        <v>"2210030489.pdf"</v>
       </c>
       <c r="L20" t="s">
         <v>59</v>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3">
-        <v>2210030099</v>
+        <v>2210030500</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
@@ -1549,16 +1549,16 @@
         <v>58</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-20.pdf"</v>
+        <f>H21&amp;E21&amp;H21</f>
+        <v>"SWP CSER-3.pdf"</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-20.pdf" "2210030099.pdf"</v>
+        <f>G21&amp;F21&amp;I21&amp;F21&amp;K21</f>
+        <v>ren "SWP CSER-3.pdf" "2210030500.pdf"</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030099.pdf"</v>
+        <f>H21&amp;B21&amp;L21&amp;H21</f>
+        <v>"2210030500.pdf"</v>
       </c>
       <c r="L21" t="s">
         <v>59</v>
@@ -1566,19 +1566,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>2210030098</v>
+        <v>2210030501</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
@@ -1590,16 +1590,16 @@
         <v>58</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-21.pdf"</v>
+        <f>H22&amp;E22&amp;H22</f>
+        <v>"SWP CSER-2.pdf"</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-21.pdf" "2210030098.pdf"</v>
+        <f>G22&amp;F22&amp;I22&amp;F22&amp;K22</f>
+        <v>ren "SWP CSER-2.pdf" "2210030501.pdf"</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030098.pdf"</v>
+        <f>H22&amp;B22&amp;L22&amp;H22</f>
+        <v>"2210030501.pdf"</v>
       </c>
       <c r="L22" t="s">
         <v>59</v>
@@ -1607,19 +1607,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3">
-        <v>2210030042</v>
+        <v>2210030503</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
         <v>57</v>
@@ -1631,16 +1631,16 @@
         <v>58</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>"SWP CSER-22.pdf"</v>
+        <f>H23&amp;E23&amp;H23</f>
+        <v>"SWP CSER-1.pdf"</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>ren "SWP CSER-22.pdf" "2210030042.pdf"</v>
+        <f>G23&amp;F23&amp;I23&amp;F23&amp;K23</f>
+        <v>ren "SWP CSER-1.pdf" "2210030503.pdf"</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v>"2210030042.pdf"</v>
+        <f>H23&amp;B23&amp;L23&amp;H23</f>
+        <v>"2210030503.pdf"</v>
       </c>
       <c r="L23" t="s">
         <v>59</v>
@@ -1656,6 +1656,9 @@
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
+    <sortCondition ref="B1:B32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>